--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Reac53b593f7e40ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Ra14fc487ef2f418f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcc96f833f9b84e27"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcf9336043936428a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R32fc1e899e084a21"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1430d53319a2461c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Ra14fc487ef2f418f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rb162836f402142fb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcf9336043936428a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R46ba1b64632f41e2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1430d53319a2461c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb2e8de93ada94d07"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rb162836f402142fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rbe3feac06d3948e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R46ba1b64632f41e2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29515837c8a94a8a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb2e8de93ada94d07"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R214b3590325849bc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rbe3feac06d3948e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Raccec25ff1fd4d3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R29515837c8a94a8a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7d3b7251bca4a5d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R214b3590325849bc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0d404e937bc24449"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Raccec25ff1fd4d3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R62e99266e77c4138"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7d3b7251bca4a5d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72919c91e60744c0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0d404e937bc24449"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb729a47dd92c4750"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R62e99266e77c4138"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rcc77e5afaf394548"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72919c91e60744c0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f5c42a9ef724810"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb729a47dd92c4750"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R01136c88d07b44f1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rcc77e5afaf394548"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rd6d38e92b03a40ce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f5c42a9ef724810"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6413fbd23b2b4a7f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R01136c88d07b44f1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8389b430ea1a4cda"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rd6d38e92b03a40ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R6f10e8f0b67a4128"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6413fbd23b2b4a7f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R486e27c8aebf44f0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8389b430ea1a4cda"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R48009ab59a1d4568"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R6f10e8f0b67a4128"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R296bad7ea92c43cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R486e27c8aebf44f0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ffeb21718174851"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R48009ab59a1d4568"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcc1bca80e08e41b4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R296bad7ea92c43cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rfd3c99f02da14b6e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ffeb21718174851"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R916a15cad8a64991"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcc1bca80e08e41b4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5b746ddd2f424234"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rfd3c99f02da14b6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R13182718774f4ba5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R916a15cad8a64991"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdbf8953e0d3b4de4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5b746ddd2f424234"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9fdc65e72424b26"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R13182718774f4ba5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R35841f80751940d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdbf8953e0d3b4de4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R63cec8285cfe4bab"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9fdc65e72424b26"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2f7061028a164b82"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/089_LineChartMultipleSeries.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R35841f80751940d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rd6b9575f05254bcb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -250,7 +250,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R63cec8285cfe4bab"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R82f2a562c70745c8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -361,6 +361,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2f7061028a164b82"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbddeae43a35b4391"/>
 </x:worksheet>
 </file>